--- a/public/template/import_order_template.xlsx
+++ b/public/template/import_order_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\Bizfly-Ecommerce\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743A2368-3080-47A7-9B3E-5C6E63C0FA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C785748-24EF-434D-A6EA-CC09D4E9CA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3885" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Trạng thái</t>
   </si>
@@ -42,31 +42,7 @@
     <t>Tổng tiền</t>
   </si>
   <si>
-    <t>DH1235</t>
-  </si>
-  <si>
-    <t>DH1236</t>
-  </si>
-  <si>
-    <t>DH1237</t>
-  </si>
-  <si>
-    <t>Gói cẩn thận</t>
-  </si>
-  <si>
-    <t>Kiểm tra hàng trước khi giao</t>
-  </si>
-  <si>
-    <t>623435eddb0c000058006297</t>
-  </si>
-  <si>
-    <t>Mã đơn</t>
-  </si>
-  <si>
     <t>Mã KH</t>
-  </si>
-  <si>
-    <t>DH0012</t>
   </si>
   <si>
     <t>62318f64e00e0000d3007c53</t>
@@ -76,23 +52,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF212529"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,11 +79,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,85 +402,61 @@
     <col min="7" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2000000</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
+      <c r="D5">
         <v>4000000</v>
       </c>
     </row>
